--- a/teaching/traditional_assets/database/data/vietnam/vietnam_beverage_soft.xlsx
+++ b/teaching/traditional_assets/database/data/vietnam/vietnam_beverage_soft.xlsx
@@ -590,110 +590,116 @@
           <t>Beverage (Soft)</t>
         </is>
       </c>
-      <c r="D2">
-        <v>-0.0814</v>
-      </c>
-      <c r="E2">
-        <v>-0.0696</v>
-      </c>
       <c r="G2">
-        <v>-0.007339449541284403</v>
+        <v>0.08512820512820514</v>
       </c>
       <c r="H2">
-        <v>-0.007339449541284403</v>
+        <v>0.08512820512820514</v>
       </c>
       <c r="I2">
-        <v>0.0304860355745303</v>
+        <v>-0.02012820512820513</v>
       </c>
       <c r="J2">
-        <v>0.02301552633572464</v>
+        <v>-0.01771583597426294</v>
       </c>
       <c r="K2">
-        <v>0.724</v>
+        <v>0.235</v>
       </c>
       <c r="L2">
-        <v>0.06642201834862385</v>
+        <v>0.03012820512820513</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.297</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.03421658986175115</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.263829787234042</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.297</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.03421658986175115</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.263829787234042</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>3.82</v>
+        <v>1.97</v>
       </c>
       <c r="V2">
-        <v>0.382</v>
+        <v>0.2269585253456221</v>
+      </c>
+      <c r="W2">
+        <v>0.02790973871733967</v>
       </c>
       <c r="X2">
-        <v>0.08569987790469449</v>
+        <v>0.06271493999845341</v>
+      </c>
+      <c r="Y2">
+        <v>-0.03480520128111375</v>
       </c>
       <c r="Z2">
-        <v>12.19906554431044</v>
+        <v>1.695652173913044</v>
       </c>
       <c r="AA2">
-        <v>0.2807679143063082</v>
+        <v>-0.03003989578244586</v>
       </c>
       <c r="AB2">
-        <v>0.08288954216378673</v>
+        <v>0.06271493999845341</v>
       </c>
       <c r="AC2">
-        <v>0.1978783721425214</v>
+        <v>-0.09275483578089927</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.893511061188099</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.893511061188099</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>-2.926488938811901</v>
+        <v>-1.97</v>
       </c>
       <c r="AH2">
-        <v>0.08202232101012329</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.09593708058302518</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.4137250812922819</v>
+        <v>-0.293591654247392</v>
       </c>
       <c r="AK2">
-        <v>-0.5327174017155761</v>
+        <v>-0.309748427672956</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AM2">
-        <v>-0.406</v>
+        <v>-0.415</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AO2">
+        <v>-157</v>
       </c>
       <c r="AP2">
-        <v>-4.481606338149925</v>
+        <v>40.20408163265306</v>
       </c>
       <c r="AQ2">
-        <v>-1.167487684729064</v>
+        <v>0.3783132530120482</v>
       </c>
     </row>
     <row r="3">
@@ -712,110 +718,116 @@
           <t>Beverage (Soft)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.0814</v>
-      </c>
-      <c r="E3">
-        <v>-0.0696</v>
-      </c>
       <c r="G3">
-        <v>-0.007339449541284403</v>
+        <v>0.08512820512820514</v>
       </c>
       <c r="H3">
-        <v>-0.007339449541284403</v>
+        <v>0.08512820512820514</v>
       </c>
       <c r="I3">
-        <v>0.0304860355745303</v>
+        <v>-0.02012820512820513</v>
       </c>
       <c r="J3">
-        <v>0.02301552633572464</v>
+        <v>-0.01771583597426294</v>
       </c>
       <c r="K3">
-        <v>0.724</v>
+        <v>0.235</v>
       </c>
       <c r="L3">
-        <v>0.06642201834862385</v>
+        <v>0.03012820512820513</v>
       </c>
       <c r="M3">
+        <v>0.297</v>
+      </c>
+      <c r="N3">
+        <v>0.03421658986175115</v>
+      </c>
+      <c r="O3">
+        <v>1.263829787234042</v>
+      </c>
+      <c r="P3">
+        <v>0.297</v>
+      </c>
+      <c r="Q3">
+        <v>0.03421658986175115</v>
+      </c>
+      <c r="R3">
+        <v>1.263829787234042</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1.97</v>
+      </c>
+      <c r="V3">
+        <v>0.2269585253456221</v>
+      </c>
+      <c r="W3">
+        <v>0.02790973871733967</v>
+      </c>
+      <c r="X3">
+        <v>0.06271493999845341</v>
+      </c>
+      <c r="Y3">
+        <v>-0.03480520128111375</v>
+      </c>
+      <c r="Z3">
+        <v>1.695652173913044</v>
+      </c>
+      <c r="AA3">
+        <v>-0.03003989578244586</v>
+      </c>
+      <c r="AB3">
+        <v>0.06271493999845341</v>
+      </c>
+      <c r="AC3">
+        <v>-0.09275483578089927</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>-1.97</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.293591654247392</v>
+      </c>
+      <c r="AK3">
+        <v>-0.309748427672956</v>
+      </c>
+      <c r="AL3">
+        <v>0.001</v>
+      </c>
+      <c r="AM3">
+        <v>-0.415</v>
+      </c>
+      <c r="AN3">
         <v>-0</v>
       </c>
-      <c r="N3">
-        <v>-0</v>
-      </c>
-      <c r="O3">
-        <v>-0</v>
-      </c>
-      <c r="P3">
-        <v>-0</v>
-      </c>
-      <c r="Q3">
-        <v>-0</v>
-      </c>
-      <c r="R3">
-        <v>-0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>3.82</v>
-      </c>
-      <c r="V3">
-        <v>0.382</v>
-      </c>
-      <c r="X3">
-        <v>0.08569987790469449</v>
-      </c>
-      <c r="Z3">
-        <v>12.19906554431044</v>
-      </c>
-      <c r="AA3">
-        <v>0.2807679143063082</v>
-      </c>
-      <c r="AB3">
-        <v>0.08288954216378673</v>
-      </c>
-      <c r="AC3">
-        <v>0.1978783721425214</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0.893511061188099</v>
-      </c>
-      <c r="AF3">
-        <v>0.893511061188099</v>
-      </c>
-      <c r="AG3">
-        <v>-2.926488938811901</v>
-      </c>
-      <c r="AH3">
-        <v>0.08202232101012329</v>
-      </c>
-      <c r="AI3">
-        <v>0.09593708058302518</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.4137250812922819</v>
-      </c>
-      <c r="AK3">
-        <v>-0.5327174017155761</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>-0.406</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
+      <c r="AO3">
+        <v>-157</v>
       </c>
       <c r="AP3">
-        <v>-4.481606338149925</v>
+        <v>40.20408163265306</v>
       </c>
       <c r="AQ3">
-        <v>-1.167487684729064</v>
+        <v>0.3783132530120482</v>
       </c>
     </row>
   </sheetData>
